--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_8_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_8_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.86000000000045</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.773864388709967e-10</v>
+        <v>4.023298361133243e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>1.773864388709967e-10</v>
+        <v>4.023298361133243e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>64.2325430082671</v>
+        <v>59.74673597607177</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[46.653302554315744, 81.81178346221846]</t>
+          <t>[43.638906444910546, 75.85456550723299]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.996719095094136e-09</v>
+        <v>2.053646808164444e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>2.996719095094136e-09</v>
+        <v>2.053646808164444e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.717026615475502</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.415131825941348, 2.0189214050096567]</t>
+          <t>[1.1006580868432705, 1.7547634641672714]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>2.495070816621592e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>2.495070816621592e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>68.21788087852936</v>
+        <v>58.18703974034965</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[57.60400630568226, 78.83175545137645]</t>
+          <t>[48.103927465537, 68.2701520151623]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>18.06642642642675</v>
+        <v>19.0565765765769</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.87195195195225</v>
+        <v>17.77297297297328</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.26090090090125</v>
+        <v>20.34018018018052</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.86000000000045</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.692335491858103e-12</v>
+        <v>3.026022765695302e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>5.692335491858103e-12</v>
+        <v>3.026022765695302e-10</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>62.48874534797113</v>
+        <v>55.42544686098345</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[46.96576112361886, 78.0117295723234]</t>
+          <t>[38.868251650335864, 71.98264207163103]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.40240050075613e-10</v>
+        <v>2.459567549628616e-08</v>
       </c>
       <c r="O3" t="n">
-        <v>2.40240050075613e-10</v>
+        <v>2.459567549628616e-08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.327079178993887</v>
+        <v>1.276763380738194</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 1.5912371198362711]</t>
+          <t>[0.9497106920761933, 1.6038160694001942]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.590461261637756e-13</v>
+        <v>5.464171337621337e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>3.590461261637756e-13</v>
+        <v>5.464171337621337e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>59.28863351068744</v>
+        <v>52.63079801481621</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.154740303887706, 68.42252671748717]</t>
+          <t>[43.38540192342182, 61.8761941062106]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>5.995204332975845e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>19.60928928928964</v>
+        <v>19.64900900900934</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.56412412412446</v>
+        <v>18.36540540540572</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.65445445445482</v>
+        <v>20.93261261261296</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.86000000000045</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.203233678306106e-09</v>
+        <v>2.353276462585541e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>3.203233678306106e-09</v>
+        <v>2.353276462585541e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>65.11583833287071</v>
+        <v>65.69547765348938</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[43.0668213333003, 87.16485533244112]</t>
+          <t>[44.71329352292513, 86.67766178405363]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.728095294697198e-07</v>
+        <v>1.095031156861381e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>3.728095294697198e-07</v>
+        <v>1.095031156861381e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>1.088079137279348</v>
+        <v>0.8993948938205003</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 1.4402897250691957]</t>
+          <t>[0.5849211547224238, 1.2138686329185768]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.460214400506032e-07</v>
+        <v>7.074636645398868e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>1.460214400506032e-07</v>
+        <v>7.074636645398868e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>62.88465325715656</v>
+        <v>65.98063980146298</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[51.08083218702417, 74.68847432728896]</t>
+          <t>[55.220534707790776, 76.7407448951352]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.46229728115577e-14</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>5.46229728115577e-14</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>20.55491491491528</v>
+        <v>21.13009009009045</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.1613613613617</v>
+        <v>19.8958558558562</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.94846846846886</v>
+        <v>22.3643243243247</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.86000000000045</v>
+        <v>24.66000000000042</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>6.357714910087964e-09</v>
+        <v>1.085830814151478e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>6.357714910087964e-09</v>
+        <v>1.085830814151478e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>60.66284748688953</v>
+        <v>51.13213767676623</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[40.14861743305772, 81.17707754072133]</t>
+          <t>[30.56854372665842, 71.69573162687405]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.629892353362862e-07</v>
+        <v>8.952991988886438e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>3.629892353362862e-07</v>
+        <v>8.952991988886438e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.062921238151502</v>
+        <v>1.062921238151501</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.7107106503616558, 1.4151318259413488]</t>
+          <t>[0.6603948521059619, 1.4654476241970391]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.389160715932093e-07</v>
+        <v>3.16401645594766e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>2.389160715932093e-07</v>
+        <v>3.16401645594766e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>60.06652307219402</v>
+        <v>58.18915496383845</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[48.78807521766807, 71.34497092671998]</t>
+          <t>[47.51156226079952, 68.86674766687739]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.506706202140776e-14</v>
+        <v>2.597921877622866e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>5.506706202140776e-14</v>
+        <v>2.597921877622866e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>20.65445445445482</v>
+        <v>20.48828828828864</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.26090090090124</v>
+        <v>18.90846846846879</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.0480080080084</v>
+        <v>22.06810810810848</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.65000000000057</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.474493549480371e-08</v>
+        <v>4.199117109582318e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>1.474493549480371e-08</v>
+        <v>4.199117109582318e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>51.29614906696276</v>
+        <v>57.53962757335051</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[32.38076240215683, 70.21153573176868]</t>
+          <t>[36.238744523237074, 78.84051062346396]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.948718868494126e-06</v>
+        <v>2.094620282555582e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>1.948718868494126e-06</v>
+        <v>2.094620282555582e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6352369529781159</v>
+        <v>0.5597632555945768</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.2704474156243455, 1.0000264903318863]</t>
+          <t>[0.18239476867688342, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.001038856452689751</v>
+        <v>0.004540609241171945</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001038856452689751</v>
+        <v>0.004540609241171945</v>
       </c>
       <c r="T6" t="n">
-        <v>54.34742207623479</v>
+        <v>60.44361050961876</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.76127628168361, 63.93356787078598]</t>
+          <t>[49.22562931577117, 71.66159170346634]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>3.774758283725532e-14</v>
       </c>
       <c r="W6" t="n">
-        <v>6.883382752675971e-15</v>
+        <v>3.774758283725532e-14</v>
       </c>
       <c r="X6" t="n">
-        <v>23.05675675675727</v>
+        <v>23.21911911911962</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.56756756756804</v>
+        <v>21.68818818818865</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.5459459459465</v>
+        <v>24.75005005005059</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.65000000000057</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.131838393181766e-07</v>
+        <v>7.400802193302525e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>7.131838393181766e-07</v>
+        <v>7.400802193302525e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>46.85806254827932</v>
+        <v>64.98475038205004</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[29.038335389823345, 64.6777897067353]</t>
+          <t>[48.85093237757613, 81.11856838652395]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.410688111493698e-06</v>
+        <v>2.36555441901487e-10</v>
       </c>
       <c r="O7" t="n">
-        <v>3.410688111493698e-06</v>
+        <v>2.36555441901487e-10</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1823947686768852</v>
+        <v>0.1069210712933462</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.25786846606042335, 0.6226580034141938]</t>
+          <t>[-0.16981581911296217, 0.3836579616996545]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.4084554536911911</v>
+        <v>0.4405376480218617</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4084554536911911</v>
+        <v>0.4405376480218617</v>
       </c>
       <c r="T7" t="n">
-        <v>49.25207709852461</v>
+        <v>55.35028418626226</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[38.98234044589668, 59.521813751152536]</t>
+          <t>[45.43766647979457, 65.26290189272994]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.522781900575865e-12</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.522781900575865e-12</v>
+        <v>1.154631945610163e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>24.90540540540596</v>
+        <v>25.05623623623677</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.10810810810862</v>
+        <v>23.93355355355407</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.7027027027033</v>
+        <v>26.17891891891948</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.65000000000057</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>5.059437313548187e-10</v>
+        <v>1.180819220181206e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>5.059437313548187e-10</v>
+        <v>1.180819220181206e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.98903801726079</v>
+        <v>59.78535539239688</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[44.4432133904844, 81.53486264403718]</t>
+          <t>[44.21675214186699, 75.35395864292677]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.756205625369489e-08</v>
+        <v>8.41796854444965e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.756205625369489e-08</v>
+        <v>8.41796854444965e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.2515789912784623</v>
+        <v>-0.006289474781961957</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.5660527303765388, 0.06289474781961424]</t>
+          <t>[-0.30818426431611634, 0.2956053147521924]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1141110070256994</v>
+        <v>0.9667158264814162</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1141110070256994</v>
+        <v>0.9667158264814162</v>
       </c>
       <c r="T8" t="n">
-        <v>60.69643680329345</v>
+        <v>56.33230225590744</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[50.25761522918047, 71.13525837740643]</t>
+          <t>[46.238253363079856, 66.42635114873502]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>2.886579864025407e-15</v>
+        <v>1.176836406102666e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>1.027027027027053</v>
+        <v>0.02551551551551512</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.2567567567567557</v>
+        <v>-1.199229229229256</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.310810810810862</v>
+        <v>1.250260260260287</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.65000000000057</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.421290751757454e-09</v>
+        <v>1.157869744528028e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>1.421290751757454e-09</v>
+        <v>1.157869744528028e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.14825021152124</v>
+        <v>59.73762502072056</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[31.369862185376164, 64.92663823766632]</t>
+          <t>[37.763333475899685, 81.71191656554144]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.620909247523343e-07</v>
+        <v>1.86235323140771e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>6.620909247523343e-07</v>
+        <v>1.86235323140771e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.6666843268879239</v>
+        <v>-0.6289474781961548</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.0063159651138474, -0.32705268866200043]</t>
+          <t>[-0.9937370155499243, -0.2641579408423853]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0002694051523015606</v>
+        <v>0.001150453559177755</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0002694051523015606</v>
+        <v>0.001150453559177755</v>
       </c>
       <c r="T9" t="n">
-        <v>47.75315641290992</v>
+        <v>66.5788295605233</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[39.220772094449266, 56.28554073137057]</t>
+          <t>[55.17130446195645, 77.98635465909015]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>2.664535259100376e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>2.721621621621679</v>
+        <v>2.551551551551608</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.335135135135163</v>
+        <v>1.071651651651677</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.108108108108196</v>
+        <v>4.031451451451538</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.65000000000057</v>
+        <v>25.49000000000055</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.932516369151926e-10</v>
+        <v>1.03755892766344e-10</v>
       </c>
       <c r="I10" t="n">
-        <v>1.932516369151926e-10</v>
+        <v>1.03755892766344e-10</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>60.05371582758136</v>
+        <v>59.77798765287794</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[41.30303249713252, 78.8043991580302]</t>
+          <t>[41.10968081849647, 78.44629448725941]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.675523356314272e-08</v>
+        <v>6.704940114232727e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>6.675523356314272e-08</v>
+        <v>6.704940114232727e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9937370155499243</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.3207897042119248, -0.6666843268879239]</t>
+          <t>[-1.2201581077005406, -0.6163685286322318]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.072936433616945e-07</v>
+        <v>2.027648813296423e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>2.072936433616945e-07</v>
+        <v>2.027648813296423e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>49.66348399270749</v>
+        <v>53.95033514866888</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[39.588581247170126, 59.738386738244856]</t>
+          <t>[44.20544254796524, 63.69522774937251]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.510347816401918e-13</v>
+        <v>1.532107773982716e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>6.510347816401918e-13</v>
+        <v>1.532107773982716e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>4.056756756756847</v>
+        <v>3.725265265265346</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.721621621621683</v>
+        <v>2.500520520520574</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.391891891892012</v>
+        <v>4.950010010010118</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_8_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_8_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.66000000000042</v>
+        <v>24.47000000000039</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.023298361133243e-10</v>
+        <v>2.843908075700341e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>4.023298361133243e-10</v>
+        <v>2.843908075700341e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>59.74673597607177</v>
+        <v>52.69325909997928</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[43.638906444910546, 75.85456550723299]</t>
+          <t>[35.42895345725722, 69.95756474270134]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.053646808164444e-09</v>
+        <v>1.886299021425231e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>2.053646808164444e-09</v>
+        <v>1.886299021425231e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.427710775505271</v>
+        <v>1.717026615475502</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1006580868432705, 1.7547634641672714]</t>
+          <t>[1.3270791789938858, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.495070816621592e-11</v>
+        <v>1.944666649933424e-11</v>
       </c>
       <c r="S2" t="n">
-        <v>2.495070816621592e-11</v>
+        <v>1.944666649933424e-11</v>
       </c>
       <c r="T2" t="n">
-        <v>58.18703974034965</v>
+        <v>51.39869833932806</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.103927465537, 68.2701520151623]</t>
+          <t>[40.93703055229765, 61.860366126358464]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>7.223110998211268e-13</v>
       </c>
       <c r="W2" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>7.223110998211268e-13</v>
       </c>
       <c r="X2" t="n">
-        <v>19.0565765765769</v>
+        <v>17.78300300300328</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.77297297297328</v>
+        <v>16.2643443443446</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.34018018018052</v>
+        <v>19.30166166166197</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.66000000000042</v>
+        <v>24.47000000000039</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.026022765695302e-10</v>
+        <v>4.287559196569646e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>3.026022765695302e-10</v>
+        <v>4.287559196569646e-11</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>55.42544686098345</v>
+        <v>53.80160908404485</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[38.868251650335864, 71.98264207163103]</t>
+          <t>[40.580439280292154, 67.02277888779754]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.459567549628616e-08</v>
+        <v>1.789790537998215e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>2.459567549628616e-08</v>
+        <v>1.789790537998215e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>1.276763380738194</v>
+        <v>1.50318447288881</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9497106920761933, 1.6038160694001942]</t>
+          <t>[1.2138686329185786, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.464171337621337e-10</v>
+        <v>1.230127111284673e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>5.464171337621337e-10</v>
+        <v>1.230127111284673e-13</v>
       </c>
       <c r="T3" t="n">
-        <v>52.63079801481621</v>
+        <v>53.87021764351986</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.38540192342182, 61.8761941062106]</t>
+          <t>[45.4931720717821, 62.24726321525762]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>5.995204332975845e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>19.64900900900934</v>
+        <v>18.61581581581611</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.36540540540572</v>
+        <v>17.48906906906934</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.93261261261296</v>
+        <v>19.74256256256287</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.66000000000042</v>
+        <v>24.47000000000039</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.353276462585541e-10</v>
+        <v>3.908026902088579e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>2.353276462585541e-10</v>
+        <v>3.908026902088579e-09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>65.69547765348938</v>
+        <v>49.90581799189896</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[44.71329352292513, 86.67766178405363]</t>
+          <t>[33.63049995088288, 66.18113603291503]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.095031156861381e-07</v>
+        <v>1.710406938304487e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>1.095031156861381e-07</v>
+        <v>1.710406938304487e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8993948938205003</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.5849211547224238, 1.2138686329185768]</t>
+          <t>[0.8490790955648082, 1.578658170272349]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.074636645398868e-07</v>
+        <v>2.821751210468904e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>7.074636645398868e-07</v>
+        <v>2.821751210468904e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>65.98063980146298</v>
+        <v>57.12472886690657</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[55.220534707790776, 76.7407448951352]</t>
+          <t>[48.00497548417839, 66.24448224963474]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>21.13009009009045</v>
+        <v>19.74256256256287</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.8958558558562</v>
+        <v>18.32188188188217</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.3643243243247</v>
+        <v>21.16324324324358</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.66000000000042</v>
+        <v>24.47000000000039</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.085830814151478e-07</v>
+        <v>3.662926947312073e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>1.085830814151478e-07</v>
+        <v>3.662926947312073e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>51.13213767676623</v>
+        <v>48.92704722432835</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[30.56854372665842, 71.69573162687405]</t>
+          <t>[30.792395243195884, 67.06169920546081]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>8.952991988886438e-06</v>
+        <v>2.142127693671725e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>8.952991988886438e-06</v>
+        <v>2.142127693671725e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.062921238151501</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.6603948521059619, 1.4654476241970391]</t>
+          <t>[0.8993948938205012, 1.7799213632951183]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.16401645594766e-06</v>
+        <v>2.011080320052372e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>3.16401645594766e-06</v>
+        <v>2.011080320052372e-07</v>
       </c>
       <c r="T5" t="n">
-        <v>58.18915496383845</v>
+        <v>56.35542942053796</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.51156226079952, 68.86674766687739]</t>
+          <t>[45.52636147244101, 67.18449736863491]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>2.597921877622866e-14</v>
+        <v>1.167954621905665e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.597921877622866e-14</v>
+        <v>1.167954621905665e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>20.48828828828864</v>
+        <v>19.25267267267298</v>
       </c>
       <c r="Y5" t="n">
-        <v>18.90846846846879</v>
+        <v>17.53805805805833</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.06810810810848</v>
+        <v>20.96728728728762</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.49000000000055</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>4.199117109582318e-08</v>
+        <v>1.055697638419062e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>4.199117109582318e-08</v>
+        <v>1.055697638419062e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>57.53962757335051</v>
+        <v>50.88179282699272</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[36.238744523237074, 78.84051062346396]</t>
+          <t>[28.37686068950626, 73.38672496447917]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.094620282555582e-06</v>
+        <v>3.998518624737102e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>2.094620282555582e-06</v>
+        <v>3.998518624737102e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5597632555945768</v>
+        <v>0.723289599925578</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.18239476867688342, 0.9371317425122703]</t>
+          <t>[0.2956053147521924, 1.1509738850989635]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.004540609241171945</v>
+        <v>0.001396429512699582</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004540609241171945</v>
+        <v>0.001396429512699582</v>
       </c>
       <c r="T6" t="n">
-        <v>60.44361050961876</v>
+        <v>59.14747707333952</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[49.22562931577117, 71.66159170346634]</t>
+          <t>[47.65147935364895, 70.6434747930301]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.774758283725532e-14</v>
+        <v>1.683098105331737e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>3.774758283725532e-14</v>
+        <v>1.683098105331737e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>23.21911911911962</v>
+        <v>22.85657657657711</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.68818818818865</v>
+        <v>21.09837837837887</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.75005005005059</v>
+        <v>24.61477477477535</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.49000000000055</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>7.400802193302525e-11</v>
+        <v>4.018514321935118e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>7.400802193302525e-11</v>
+        <v>4.018514321935118e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>64.98475038205004</v>
+        <v>41.44676105974385</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[48.85093237757613, 81.11856838652395]</t>
+          <t>[20.94801847436564, 61.94550364512206]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.36555441901487e-10</v>
+        <v>0.0001861054360285941</v>
       </c>
       <c r="O7" t="n">
-        <v>2.36555441901487e-10</v>
+        <v>0.0001861054360285941</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1069210712933462</v>
+        <v>0.3081842643161155</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.16981581911296217, 0.3836579616996545]</t>
+          <t>[-0.22013161736865428, 0.8365001460008852]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.4405376480218617</v>
+        <v>0.2462168738749662</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4405376480218617</v>
+        <v>0.2462168738749662</v>
       </c>
       <c r="T7" t="n">
-        <v>55.35028418626226</v>
+        <v>58.80181757308326</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.43766647979457, 65.26290189272994]</t>
+          <t>[47.57374281554039, 70.02989233062613]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>9.525713551283843e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>1.154631945610163e-14</v>
+        <v>9.525713551283843e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>25.05623623623677</v>
+        <v>24.56306306306363</v>
       </c>
       <c r="Y7" t="n">
-        <v>23.93355355355407</v>
+        <v>22.39117117117169</v>
       </c>
       <c r="Z7" t="n">
-        <v>26.17891891891948</v>
+        <v>26.73495495495558</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.49000000000055</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.180819220181206e-09</v>
+        <v>6.484912606907756e-11</v>
       </c>
       <c r="I8" t="n">
-        <v>1.180819220181206e-09</v>
+        <v>6.484912606907756e-11</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>59.78535539239688</v>
+        <v>60.67842739906655</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[44.21675214186699, 75.35395864292677]</t>
+          <t>[46.23037255848254, 75.12648223965056]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>8.41796854444965e-10</v>
+        <v>7.48063833100332e-11</v>
       </c>
       <c r="O8" t="n">
-        <v>8.41796854444965e-10</v>
+        <v>7.48063833100332e-11</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.006289474781961957</v>
+        <v>-0.02515789912784605</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.30818426431611634, 0.2956053147521924]</t>
+          <t>[-0.28931583997023136, 0.23900004171453926]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.9667158264814162</v>
+        <v>0.8487466567116932</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9667158264814162</v>
+        <v>0.8487466567116932</v>
       </c>
       <c r="T8" t="n">
-        <v>56.33230225590744</v>
+        <v>62.74399085173673</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.238253363079856, 66.42635114873502]</t>
+          <t>[53.525878113576965, 71.9621035898965]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.176836406102666e-14</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.176836406102666e-14</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.02551551551551512</v>
+        <v>0.1034234234234255</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.199229229229256</v>
+        <v>-0.9825225225225469</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.250260260260287</v>
+        <v>1.189369369369398</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.49000000000055</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.157869744528028e-08</v>
+        <v>2.923212782945939e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>1.157869744528028e-08</v>
+        <v>2.923212782945939e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>59.73762502072056</v>
+        <v>60.95762371243535</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[37.763333475899685, 81.71191656554144]</t>
+          <t>[41.20701842028945, 80.70822900458126]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.86235323140771e-06</v>
+        <v>1.489898564521752e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>1.86235323140771e-06</v>
+        <v>1.489898564521752e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.6289474781961548</v>
+        <v>-0.6163685286322318</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.9937370155499243, -0.2641579408423853]</t>
+          <t>[-0.9434212172942322, -0.28931583997023136]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001150453559177755</v>
+        <v>0.0004375214563208107</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001150453559177755</v>
+        <v>0.0004375214563208107</v>
       </c>
       <c r="T9" t="n">
-        <v>66.5788295605233</v>
+        <v>54.36612938594094</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[55.17130446195645, 77.98635465909015]</t>
+          <t>[44.18193213901391, 64.55032663286796]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>5.10702591327572e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.664535259100376e-15</v>
+        <v>5.10702591327572e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>2.551551551551608</v>
+        <v>2.533873873873933</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.071651651651677</v>
+        <v>1.189369369369398</v>
       </c>
       <c r="Z9" t="n">
-        <v>4.031451451451538</v>
+        <v>3.878378378378469</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.49000000000055</v>
+        <v>25.8300000000006</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.03755892766344e-10</v>
+        <v>1.079412571547422e-07</v>
       </c>
       <c r="I10" t="n">
-        <v>1.03755892766344e-10</v>
+        <v>1.079412571547422e-07</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>59.77798765287794</v>
+        <v>50.2406117034906</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[41.10968081849647, 78.44629448725941]</t>
+          <t>[29.55718434904101, 70.92403905794019]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>6.704940114232727e-08</v>
+        <v>1.31550229973687e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>6.704940114232727e-08</v>
+        <v>1.31550229973687e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.2201581077005406, -0.6163685286322318]</t>
+          <t>[-1.534631846798618, -0.6792632764518469]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.027648813296423e-07</v>
+        <v>4.512406832635207e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>2.027648813296423e-07</v>
+        <v>4.512406832635207e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>53.95033514866888</v>
+        <v>59.23867490614467</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[44.20544254796524, 63.69522774937251]</t>
+          <t>[48.3721717656239, 70.10517804666546]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>2.55351295663786e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.532107773982716e-14</v>
+        <v>2.55351295663786e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>3.725265265265346</v>
+        <v>4.550630630630739</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.500520520520574</v>
+        <v>2.792432432432499</v>
       </c>
       <c r="Z10" t="n">
-        <v>4.950010010010118</v>
+        <v>6.308828828828979</v>
       </c>
     </row>
   </sheetData>
